--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DocsPDRMYE\Administración de servidores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="169">
   <si>
     <t>Nombre</t>
   </si>
@@ -154,9 +154,6 @@
     <t>2e4nzZ9I9g</t>
   </si>
   <si>
-    <t>084TUn8PCd</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -533,6 +530,12 @@
   </si>
   <si>
     <t>PDRMYE</t>
+  </si>
+  <si>
+    <t>10.200.4.161</t>
+  </si>
+  <si>
+    <t>GAMA920807EB6</t>
   </si>
 </sst>
 </file>
@@ -672,6 +675,53 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -808,53 +858,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -885,40 +888,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="2">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:G23">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DEV"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="Ambiente" dataDxfId="9"/>
-    <tableColumn id="8" name="Tipo" dataDxfId="8"/>
-    <tableColumn id="2" name="Permiso" dataDxfId="7"/>
-    <tableColumn id="3" name="NombreSesión" dataDxfId="6"/>
-    <tableColumn id="4" name="IP" dataDxfId="5"/>
-    <tableColumn id="6" name="Usuario BD" dataDxfId="4"/>
-    <tableColumn id="7" name="Contraseña" dataDxfId="3"/>
+    <tableColumn id="1" name="Ambiente" dataDxfId="14"/>
+    <tableColumn id="8" name="Tipo" dataDxfId="13"/>
+    <tableColumn id="2" name="Permiso" dataDxfId="12"/>
+    <tableColumn id="3" name="NombreSesión" dataDxfId="11"/>
+    <tableColumn id="4" name="IP" dataDxfId="10"/>
+    <tableColumn id="6" name="Usuario BD" dataDxfId="9"/>
+    <tableColumn id="7" name="Contraseña" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q11" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:Q11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:Q12"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Ambiente"/>
     <tableColumn id="2" name="Conexión"/>
     <tableColumn id="3" name="Permiso"/>
     <tableColumn id="4" name="Nombre"/>
-    <tableColumn id="5" name="Puerto" dataDxfId="14"/>
-    <tableColumn id="6" name="IP" dataDxfId="13"/>
+    <tableColumn id="5" name="Puerto" dataDxfId="6"/>
+    <tableColumn id="6" name="IP" dataDxfId="5"/>
     <tableColumn id="7" name="Host"/>
     <tableColumn id="8" name="Usuario"/>
     <tableColumn id="9" name="Contraseña"/>
     <tableColumn id="10" name="RAM"/>
     <tableColumn id="11" name="Núcleos"/>
     <tableColumn id="12" name="SO"/>
-    <tableColumn id="13" name="Version" dataDxfId="12"/>
-    <tableColumn id="20" name="Interno" dataDxfId="11"/>
-    <tableColumn id="19" name="Externo" dataDxfId="10"/>
+    <tableColumn id="13" name="Version" dataDxfId="4"/>
+    <tableColumn id="20" name="Interno" dataDxfId="3"/>
+    <tableColumn id="19" name="Externo" dataDxfId="2"/>
     <tableColumn id="15" name="Procesador"/>
     <tableColumn id="18" name="Equipo"/>
   </tableColumns>
@@ -1223,7 +1232,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,19 +1251,19 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -1265,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1288,13 +1297,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -1311,13 +1320,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1334,22 +1343,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1357,19 +1366,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -1380,55 +1389,59 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -1440,329 +1453,329 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1781,9 +1794,9 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1842,22 +1855,22 @@
         <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="P1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,32 +1878,34 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3">
+        <v>41</v>
+      </c>
+      <c r="E2" s="15">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="3">
+        <v>46</v>
+      </c>
+      <c r="M2" s="15">
         <v>7</v>
       </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1909,7 +1924,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -1918,7 +1933,7 @@
         <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="3">
         <v>7</v>
@@ -1941,7 +1956,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1950,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="3">
         <v>7</v>
@@ -1958,7 +1973,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1967,33 +1982,33 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="3">
         <v>7</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -2008,36 +2023,36 @@
         <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" s="3">
         <v>7</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
         <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -2052,36 +2067,36 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="3">
         <v>7</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
         <v>86</v>
-      </c>
-      <c r="P7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2090,22 +2105,22 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2113,7 +2128,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -2128,30 +2143,30 @@
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="3">
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -2166,30 +2181,30 @@
         <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" s="3">
         <v>7</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -2198,34 +2213,34 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="15">
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="3">
         <v>7</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2259,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
@@ -2261,7 +2276,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>3</v>
@@ -2276,137 +2291,137 @@
         <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="14">
         <v>80</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="14">
         <v>80</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="14">
         <v>80</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="14">
         <v>81</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>167</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14">
         <v>81</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>167</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="14">
         <v>81</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -2430,66 +2445,66 @@
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="14">
         <v>90</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="14">
         <v>90</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="14">
         <v>90</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2521,64 +2536,64 @@
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="14">
         <v>92</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="14">
         <v>92</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="14">
         <v>92</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2662,72 +2677,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2753,66 +2768,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
         <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
         <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
         <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
   <si>
     <t>Nombre</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t>PRODUCCION</t>
-  </si>
-  <si>
-    <t>NO IMPLEMENTADO</t>
   </si>
   <si>
     <t>IMPLEMENTADO</t>
@@ -1794,7 +1791,7 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -1890,13 +1887,13 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
@@ -2259,9 +2256,9 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>3</v>
@@ -2291,15 +2288,15 @@
         <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
@@ -2314,15 +2311,15 @@
         <v>80</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>47</v>
@@ -2337,13 +2334,13 @@
         <v>80</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>138</v>
@@ -2358,19 +2355,19 @@
         <v>80</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>42</v>
@@ -2379,19 +2376,19 @@
         <v>81</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>87</v>
@@ -2400,19 +2397,19 @@
         <v>81</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>98</v>
@@ -2421,7 +2418,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>4</v>
@@ -2460,15 +2457,15 @@
         <v>90</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>47</v>
@@ -2483,13 +2480,13 @@
         <v>90</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>138</v>
@@ -2504,7 +2501,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2536,7 +2533,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>4</v>
@@ -2551,13 +2548,13 @@
         <v>92</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>47</v>
@@ -2572,13 +2569,13 @@
         <v>92</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>138</v>
@@ -2768,66 +2765,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
         <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
         <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
         <v>154</v>
-      </c>
-      <c r="B8" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="178">
   <si>
     <t>Nombre</t>
   </si>
@@ -295,9 +295,6 @@
     <t>10.200.4.165</t>
   </si>
   <si>
-    <t>ASsL89D14YdJ0vIc</t>
-  </si>
-  <si>
     <t>Procesador</t>
   </si>
   <si>
@@ -533,13 +530,46 @@
   </si>
   <si>
     <t>GAMA920807EB6</t>
+  </si>
+  <si>
+    <t>ASsL89D14YdJ0vlc</t>
+  </si>
+  <si>
+    <t>Repositorio</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarcia25/pdrmye</t>
+  </si>
+  <si>
+    <t>https://github.com/JJREYES30/Api_AdSisUs</t>
+  </si>
+  <si>
+    <t>https://github.com/JJREYES30/DocsPDRMYE</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarcia25/SIREApi</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>/var/www/html/Api_AdSisUs</t>
+  </si>
+  <si>
+    <t>/home/pdrmye/</t>
+  </si>
+  <si>
+    <t>/var/www/html/ApiDoc</t>
+  </si>
+  <si>
+    <t>/var/www/html/SIREApi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +615,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF14141F"/>
+      <name val="Var(--font-family-mono)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -617,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,6 +690,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,13 +924,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G23">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DEV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G23"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Ambiente" dataDxfId="14"/>
     <tableColumn id="8" name="Tipo" dataDxfId="13"/>
@@ -933,9 +965,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:G24" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:G24"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:I19" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:I19"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Servicio" dataCellStyle="Normal"/>
     <tableColumn id="2" name="Ambiente" dataCellStyle="Normal"/>
     <tableColumn id="11" name="Nombre Corto" dataCellStyle="Normal"/>
@@ -943,6 +975,8 @@
     <tableColumn id="4" name="Puerto" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="5" name="Estatus" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Descripcion" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Repositorio" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="Path" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1229,10 +1263,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
@@ -1243,7 +1277,7 @@
     <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -1450,7 +1484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.8">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1474,7 +1508,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1497,7 +1531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1520,7 +1554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1566,7 +1600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1589,7 +1623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16.8">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -1613,9 +1647,9 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
@@ -1624,21 +1658,21 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -1647,21 +1681,21 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1670,21 +1704,21 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.8">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -1693,22 +1727,22 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
@@ -1717,21 +1751,21 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
@@ -1740,21 +1774,21 @@
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -1763,16 +1797,16 @@
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1793,10 +1827,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -1817,7 +1851,7 @@
     <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1858,19 +1892,19 @@
         <v>45</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="P1" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1887,13 +1921,13 @@
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
@@ -1904,7 +1938,7 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2003,7 +2037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2047,7 +2081,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2070,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
         <v>84</v>
@@ -2091,9 +2125,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2102,19 +2136,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
         <v>46</v>
@@ -2123,9 +2157,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -2140,13 +2174,13 @@
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>46</v>
@@ -2155,15 +2189,15 @@
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -2178,13 +2212,13 @@
         <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>46</v>
@@ -2193,15 +2227,15 @@
         <v>7</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -2216,13 +2250,13 @@
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
@@ -2231,13 +2265,13 @@
         <v>7</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2254,26 +2288,29 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>3</v>
@@ -2288,21 +2325,27 @@
         <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>43</v>
@@ -2311,21 +2354,27 @@
         <v>80</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>82</v>
@@ -2334,40 +2383,52 @@
         <v>80</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="14">
         <v>80</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>42</v>
@@ -2376,19 +2437,25 @@
         <v>81</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>87</v>
@@ -2397,123 +2464,206 @@
         <v>81</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="14">
         <v>81</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="14">
+        <v>90</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="14">
+        <v>90</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E10" s="14">
         <v>90</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E11" s="14">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="14">
+        <v>92</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="14">
-        <v>90</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="14">
+        <v>92</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2521,8 +2671,10 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2530,70 +2682,43 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="14">
-        <v>92</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="14">
-        <v>92</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="14">
-        <v>92</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2601,54 +2726,11 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F28" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="F23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2667,79 +2749,79 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2757,74 +2839,74 @@
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>149</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>153</v>
-      </c>
-      <c r="B8" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2844,9 +2926,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2857,7 +2939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2868,7 +2950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2879,7 +2961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -2890,7 +2972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="182">
   <si>
     <t>Nombre</t>
   </si>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>/var/www/html/SIREApi</t>
+  </si>
+  <si>
+    <t>Servicios SICSA</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarcia25/SICSA_BACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SICSA</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarcia25/sicsa</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2292,7 +2304,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="A1:I13"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2663,71 +2675,165 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+    <row r="14" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="14">
+        <v>93</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="14">
+        <v>93</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="14">
+        <v>93</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="14">
+        <v>93</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="14">
+        <v>93</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="A19" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="14">
+        <v>93</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="F23" s="16"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -1837,9 +1837,9 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2302,7 +2302,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\All-documents\DOCUMENTOS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="191">
   <si>
     <t>Nombre</t>
   </si>
@@ -575,12 +575,39 @@
   </si>
   <si>
     <t>https://github.com/aagarcia25/sicsa</t>
+  </si>
+  <si>
+    <t>nueva ip</t>
+  </si>
+  <si>
+    <t>10.210.26.26</t>
+  </si>
+  <si>
+    <t>10.210.26.25</t>
+  </si>
+  <si>
+    <t>10.210.26.27</t>
+  </si>
+  <si>
+    <t>10.210.0.30</t>
+  </si>
+  <si>
+    <t>10.210.26.28</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>NAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -709,7 +736,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -935,40 +965,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G23"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Ambiente" dataDxfId="14"/>
-    <tableColumn id="8" name="Tipo" dataDxfId="13"/>
-    <tableColumn id="2" name="Permiso" dataDxfId="12"/>
-    <tableColumn id="3" name="NombreSesión" dataDxfId="11"/>
-    <tableColumn id="4" name="IP" dataDxfId="10"/>
-    <tableColumn id="6" name="Usuario BD" dataDxfId="9"/>
-    <tableColumn id="7" name="Contraseña" dataDxfId="8"/>
+    <tableColumn id="1" name="Ambiente" dataDxfId="15"/>
+    <tableColumn id="8" name="Tipo" dataDxfId="14"/>
+    <tableColumn id="2" name="Permiso" dataDxfId="13"/>
+    <tableColumn id="3" name="NombreSesión" dataDxfId="12"/>
+    <tableColumn id="4" name="IP" dataDxfId="11"/>
+    <tableColumn id="6" name="Usuario BD" dataDxfId="10"/>
+    <tableColumn id="7" name="Contraseña" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:Q12"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:R12" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:R12"/>
+  <tableColumns count="18">
     <tableColumn id="1" name="Ambiente"/>
     <tableColumn id="2" name="Conexión"/>
     <tableColumn id="3" name="Permiso"/>
     <tableColumn id="4" name="Nombre"/>
-    <tableColumn id="5" name="Puerto" dataDxfId="6"/>
-    <tableColumn id="6" name="IP" dataDxfId="5"/>
+    <tableColumn id="5" name="Puerto" dataDxfId="7"/>
+    <tableColumn id="6" name="IP" dataDxfId="6"/>
+    <tableColumn id="14" name="nueva ip" dataDxfId="0"/>
     <tableColumn id="7" name="Host"/>
     <tableColumn id="8" name="Usuario"/>
     <tableColumn id="9" name="Contraseña"/>
     <tableColumn id="10" name="RAM"/>
     <tableColumn id="11" name="Núcleos"/>
     <tableColumn id="12" name="SO"/>
-    <tableColumn id="13" name="Version" dataDxfId="4"/>
-    <tableColumn id="20" name="Interno" dataDxfId="3"/>
-    <tableColumn id="19" name="Externo" dataDxfId="2"/>
+    <tableColumn id="13" name="Version" dataDxfId="5"/>
+    <tableColumn id="20" name="Interno" dataDxfId="4"/>
+    <tableColumn id="19" name="Externo" dataDxfId="3"/>
     <tableColumn id="15" name="Procesador"/>
     <tableColumn id="18" name="Equipo"/>
   </tableColumns>
@@ -984,7 +1015,7 @@
     <tableColumn id="2" name="Ambiente" dataCellStyle="Normal"/>
     <tableColumn id="11" name="Nombre Corto" dataCellStyle="Normal"/>
     <tableColumn id="3" name="IP" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Puerto" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Puerto" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="5" name="Estatus" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Descripcion" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Repositorio" dataCellStyle="Normal"/>
@@ -995,7 +1026,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Tiempo"/>
@@ -1273,9 +1304,9 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1835,11 +1866,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1849,21 +1880,22 @@
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1">
+    <row r="1" spans="1:18" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1883,40 +1915,43 @@
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1935,22 +1970,23 @@
       <c r="F2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2"/>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>166</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15">
+      <c r="N2" s="15">
         <v>7</v>
       </c>
-      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1969,20 +2005,21 @@
       <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2"/>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2001,20 +2038,21 @@
       <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="2"/>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2033,23 +2071,24 @@
       <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2"/>
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>7</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2068,32 +2107,33 @@
       <c r="F6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="10"/>
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>7</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2112,32 +2152,33 @@
       <c r="F7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2"/>
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>167</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>7</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2156,20 +2197,21 @@
       <c r="F8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2"/>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2188,26 +2230,29 @@
       <c r="F9" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="R9" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2226,26 +2271,29 @@
       <c r="F10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="R10" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2264,26 +2312,49 @@
       <c r="F11" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>95</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>7</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +2375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
-    <sheet name="SERVIDORES" sheetId="2" r:id="rId2"/>
-    <sheet name="APLICACIONES" sheetId="4" r:id="rId3"/>
-    <sheet name="Start Servers DEV&amp;QA" sheetId="6" r:id="rId4"/>
-    <sheet name="Escala de Puntos JIRA" sheetId="7" r:id="rId5"/>
-    <sheet name="listas" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="ESPESIFICACIONES" sheetId="8" r:id="rId2"/>
+    <sheet name="SERVIDORES" sheetId="2" r:id="rId3"/>
+    <sheet name="APLICACIONES" sheetId="4" r:id="rId4"/>
+    <sheet name="Start Servers DEV&amp;QA" sheetId="6" r:id="rId5"/>
+    <sheet name="Escala de Puntos JIRA" sheetId="7" r:id="rId6"/>
+    <sheet name="listas" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="223">
   <si>
     <t>Nombre</t>
   </si>
@@ -577,9 +578,6 @@
     <t>https://github.com/aagarcia25/sicsa</t>
   </si>
   <si>
-    <t>nueva ip</t>
-  </si>
-  <si>
     <t>10.210.26.26</t>
   </si>
   <si>
@@ -589,9 +587,6 @@
     <t>10.210.26.27</t>
   </si>
   <si>
-    <t>10.210.0.30</t>
-  </si>
-  <si>
     <t>10.210.26.28</t>
   </si>
   <si>
@@ -602,13 +597,116 @@
   </si>
   <si>
     <t>NAS</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Almacenamiento</t>
+  </si>
+  <si>
+    <t>RAID</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>tesoreria-virtual-servicios.nl.gob.mx</t>
+  </si>
+  <si>
+    <t>tesoreria-virtual.nl.gob.mx</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Almacenamiento de archivos</t>
+  </si>
+  <si>
+    <t>Servidor dedicado a la base de datos</t>
+  </si>
+  <si>
+    <t>Servidor dedicado a las apis de los servicios de las aplicaciones que conforman el set de tesoreria virtual</t>
+  </si>
+  <si>
+    <t>Servidor dedicado a las aplicaciones front que conforman el set de tesoreria virttual</t>
+  </si>
+  <si>
+    <t>se cuenta con certificado y https</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1T</t>
+  </si>
+  <si>
+    <t>251GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1T </t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin dominio /localhost.localdomain
+</t>
+  </si>
+  <si>
+    <t>31GB</t>
+  </si>
+  <si>
+    <t>344G</t>
+  </si>
+  <si>
+    <t>MyCloudEX2Ultra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.4T </t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>1GB</t>
+  </si>
+  <si>
+    <t>evalua-pbr.nl.gob.mx</t>
+  </si>
+  <si>
+    <t>7.5GB</t>
+  </si>
+  <si>
+    <t>407G</t>
+  </si>
+  <si>
+    <t>Servidor para el micrositio de PBR, servidor de base de datos, servidor de aplicaciones</t>
+  </si>
+  <si>
+    <t>free -m -h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> df -h</t>
+  </si>
+  <si>
+    <t>Comandos utilizadas para obtener la información</t>
+  </si>
+  <si>
+    <t>Produccion</t>
+  </si>
+  <si>
+    <t>Produccion,Desarrollo</t>
+  </si>
+  <si>
+    <t>Desarrollo,QA,Producción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +757,12 @@
       <color rgb="FF14141F"/>
       <name val="Var(--font-family-mono)"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4B5A68"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -668,7 +772,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -687,11 +791,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,14 +856,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -965,41 +1097,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:G23"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Ambiente" dataDxfId="15"/>
-    <tableColumn id="8" name="Tipo" dataDxfId="14"/>
-    <tableColumn id="2" name="Permiso" dataDxfId="13"/>
-    <tableColumn id="3" name="NombreSesión" dataDxfId="12"/>
-    <tableColumn id="4" name="IP" dataDxfId="11"/>
-    <tableColumn id="6" name="Usuario BD" dataDxfId="10"/>
-    <tableColumn id="7" name="Contraseña" dataDxfId="9"/>
+    <tableColumn id="1" name="Ambiente" dataDxfId="14"/>
+    <tableColumn id="8" name="Tipo" dataDxfId="13"/>
+    <tableColumn id="2" name="Permiso" dataDxfId="12"/>
+    <tableColumn id="3" name="NombreSesión" dataDxfId="11"/>
+    <tableColumn id="4" name="IP" dataDxfId="10"/>
+    <tableColumn id="6" name="Usuario BD" dataDxfId="9"/>
+    <tableColumn id="7" name="Contraseña" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:R12" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:R12"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:Q12"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="Ambiente"/>
     <tableColumn id="2" name="Conexión"/>
     <tableColumn id="3" name="Permiso"/>
     <tableColumn id="4" name="Nombre"/>
-    <tableColumn id="5" name="Puerto" dataDxfId="7"/>
-    <tableColumn id="6" name="IP" dataDxfId="6"/>
-    <tableColumn id="14" name="nueva ip" dataDxfId="0"/>
+    <tableColumn id="5" name="Puerto" dataDxfId="6"/>
+    <tableColumn id="6" name="IP" dataDxfId="5"/>
     <tableColumn id="7" name="Host"/>
     <tableColumn id="8" name="Usuario"/>
     <tableColumn id="9" name="Contraseña"/>
     <tableColumn id="10" name="RAM"/>
     <tableColumn id="11" name="Núcleos"/>
     <tableColumn id="12" name="SO"/>
-    <tableColumn id="13" name="Version" dataDxfId="5"/>
-    <tableColumn id="20" name="Interno" dataDxfId="4"/>
-    <tableColumn id="19" name="Externo" dataDxfId="3"/>
+    <tableColumn id="13" name="Version" dataDxfId="4"/>
+    <tableColumn id="20" name="Interno" dataDxfId="3"/>
+    <tableColumn id="19" name="Externo" dataDxfId="2"/>
     <tableColumn id="15" name="Procesador"/>
     <tableColumn id="18" name="Equipo"/>
   </tableColumns>
@@ -1015,7 +1146,7 @@
     <tableColumn id="2" name="Ambiente" dataCellStyle="Normal"/>
     <tableColumn id="11" name="Nombre Corto" dataCellStyle="Normal"/>
     <tableColumn id="3" name="IP" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Puerto" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Puerto" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="5" name="Estatus" dataCellStyle="Normal"/>
     <tableColumn id="6" name="Descripcion" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Repositorio" dataCellStyle="Normal"/>
@@ -1026,7 +1157,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Tiempo"/>
@@ -1304,9 +1435,9 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1863,14 +1994,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" ht="28.8">
+      <c r="C2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" ht="28.8">
+      <c r="C3" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="28.8">
+      <c r="C4" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="28.8">
+      <c r="C6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1881,21 +2202,20 @@
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1">
+    <row r="1" spans="1:17" s="9" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1915,43 +2235,40 @@
         <v>1</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="M1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="N1" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="O1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1970,23 +2287,22 @@
       <c r="F2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
         <v>166</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="15">
+      <c r="M2" s="15">
         <v>7</v>
       </c>
+      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2005,21 +2321,20 @@
       <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
       <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="3">
+      <c r="M3" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2038,21 +2353,20 @@
       <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
       <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="3">
+      <c r="M4" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2071,24 +2385,23 @@
       <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="3">
+      <c r="M5" s="3">
         <v>7</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2107,33 +2420,32 @@
       <c r="F6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="3">
+      <c r="M6" s="3">
         <v>7</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -2152,33 +2464,32 @@
       <c r="F7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="L7">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="3">
+      <c r="M7" s="3">
         <v>7</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="P7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2197,21 +2508,20 @@
       <c r="F8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="3">
+      <c r="M8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2228,31 +2538,28 @@
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="3">
+      <c r="M9" s="3">
         <v>7</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2269,31 +2576,28 @@
         <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="3">
+      <c r="M10" s="3">
         <v>7</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2310,51 +2614,45 @@
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
         <v>95</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="3">
+      <c r="M11" s="3">
         <v>7</v>
       </c>
+      <c r="N11" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="O11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>22</v>
       </c>
       <c r="F12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
         <v>186</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>187</v>
-      </c>
-      <c r="I12" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
@@ -2918,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3007,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3095,7 +3393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -530,9 +530,6 @@
     <t>10.200.4.161</t>
   </si>
   <si>
-    <t>GAMA920807EB6</t>
-  </si>
-  <si>
     <t>ASsL89D14YdJ0vlc</t>
   </si>
   <si>
@@ -700,6 +697,9 @@
   </si>
   <si>
     <t>Desarrollo,QA,Producción</t>
+  </si>
+  <si>
+    <t>&amp;NC5eXTsYq</t>
   </si>
 </sst>
 </file>
@@ -2014,19 +2014,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
         <v>189</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>190</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>191</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>192</v>
-      </c>
-      <c r="H1" t="s">
-        <v>193</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -2034,100 +2034,100 @@
     </row>
     <row r="2" spans="3:10" ht="28.8">
       <c r="C2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:10" ht="28.8">
       <c r="C3" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" t="s">
         <v>195</v>
       </c>
-      <c r="E3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" t="s">
-        <v>196</v>
-      </c>
       <c r="H3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" t="s">
         <v>200</v>
       </c>
-      <c r="I3" t="s">
-        <v>201</v>
-      </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="28.8">
       <c r="C4" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
         <v>206</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>207</v>
       </c>
-      <c r="F4" t="s">
-        <v>208</v>
-      </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="3:10">
       <c r="C5" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>210</v>
       </c>
-      <c r="G5" t="s">
-        <v>211</v>
-      </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="28.8">
@@ -2135,45 +2135,45 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
         <v>213</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>214</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="3:10">
       <c r="C15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="3:10">
       <c r="C16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2205,7 +2205,7 @@
     <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
@@ -2291,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
@@ -2468,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
         <v>84</v>
@@ -2538,7 +2538,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -2576,7 +2576,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -2614,7 +2614,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -2640,19 +2640,19 @@
     </row>
     <row r="12" spans="1:17">
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12">
         <v>22</v>
       </c>
       <c r="F12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" t="s">
         <v>185</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>186</v>
-      </c>
-      <c r="I12" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2712,10 +2712,10 @@
         <v>156</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1">
@@ -2741,10 +2741,10 @@
         <v>157</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2768,10 +2768,10 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2795,10 +2795,10 @@
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2822,10 +2822,10 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2849,10 +2849,10 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2876,10 +2876,10 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1">
@@ -2905,10 +2905,10 @@
         <v>158</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2932,10 +2932,10 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2958,10 +2958,10 @@
         <v>138</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1">
@@ -2985,10 +2985,10 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3012,10 +3012,10 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3038,15 +3038,15 @@
         <v>138</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>4</v>
@@ -3065,15 +3065,15 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>47</v>
@@ -3092,15 +3092,15 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>137</v>
@@ -3118,15 +3118,15 @@
         <v>138</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>4</v>
@@ -3145,15 +3145,15 @@
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>47</v>
@@ -3172,15 +3172,15 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>137</v>
@@ -3198,10 +3198,10 @@
         <v>138</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:9">

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -1437,7 +1437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2189,9 +2189,9 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:I5"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -2191,7 +2191,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\All-documents\DOCUMENTOS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2804B-1E02-47FB-9142-A147B3026F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="225">
   <si>
     <t>Nombre</t>
   </si>
@@ -700,12 +701,18 @@
   </si>
   <si>
     <t>&amp;NC5eXTsYq</t>
+  </si>
+  <si>
+    <t>UTILERIAS_PYTHON</t>
+  </si>
+  <si>
+    <t>https://github.com/aagarcia25/UtileriaPython</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -815,10 +822,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,25 +854,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,71 +1097,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Ambiente" dataDxfId="14"/>
-    <tableColumn id="8" name="Tipo" dataDxfId="13"/>
-    <tableColumn id="2" name="Permiso" dataDxfId="12"/>
-    <tableColumn id="3" name="NombreSesión" dataDxfId="11"/>
-    <tableColumn id="4" name="IP" dataDxfId="10"/>
-    <tableColumn id="6" name="Usuario BD" dataDxfId="9"/>
-    <tableColumn id="7" name="Contraseña" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ambiente" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Permiso" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NombreSesión" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IP" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Usuario BD" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Contraseña" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:Q12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:Q12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Ambiente"/>
-    <tableColumn id="2" name="Conexión"/>
-    <tableColumn id="3" name="Permiso"/>
-    <tableColumn id="4" name="Nombre"/>
-    <tableColumn id="5" name="Puerto" dataDxfId="6"/>
-    <tableColumn id="6" name="IP" dataDxfId="5"/>
-    <tableColumn id="7" name="Host"/>
-    <tableColumn id="8" name="Usuario"/>
-    <tableColumn id="9" name="Contraseña"/>
-    <tableColumn id="10" name="RAM"/>
-    <tableColumn id="11" name="Núcleos"/>
-    <tableColumn id="12" name="SO"/>
-    <tableColumn id="13" name="Version" dataDxfId="4"/>
-    <tableColumn id="20" name="Interno" dataDxfId="3"/>
-    <tableColumn id="19" name="Externo" dataDxfId="2"/>
-    <tableColumn id="15" name="Procesador"/>
-    <tableColumn id="18" name="Equipo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ambiente"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Conexión"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Permiso"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nombre"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Puerto" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="IP" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Host"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Usuario"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Contraseña"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="RAM"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Núcleos"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SO"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Version" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Interno" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Externo" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Procesador"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Equipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:I19" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:I19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla3" displayName="Tabla3" ref="A1:I22" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:I22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Servicio" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Ambiente" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="Nombre Corto" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="IP" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Puerto" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Estatus" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Descripcion" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Repositorio" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Path" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Servicio" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Ambiente" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Nombre Corto" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="IP" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Puerto" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Estatus" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Descripcion" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Repositorio" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Path" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Tiempo"/>
-    <tableColumn id="2" name="Puntos"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Tiempo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Puntos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1440,14 +1440,14 @@
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1680,7 +1680,7 @@
       <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
@@ -1819,7 +1819,7 @@
       <c r="G16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
@@ -1912,7 +1912,7 @@
       <c r="G20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
@@ -1993,14 +1993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="2" spans="3:10" ht="28.8">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>181</v>
       </c>
       <c r="D2" t="s">
@@ -2048,7 +2048,7 @@
       <c r="G2" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>198</v>
       </c>
       <c r="I2" t="s">
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="3" spans="3:10" ht="28.8">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>182</v>
       </c>
       <c r="D3" t="s">
@@ -2074,7 +2074,7 @@
       <c r="G3" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>199</v>
       </c>
       <c r="I3" t="s">
@@ -2085,10 +2085,10 @@
       </c>
     </row>
     <row r="4" spans="3:10" ht="28.8">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E4" t="s">
@@ -2108,13 +2108,13 @@
       </c>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>211</v>
       </c>
       <c r="F5" t="s">
@@ -2131,7 +2131,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="28.8">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -2146,7 +2146,7 @@
       <c r="G6" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>215</v>
       </c>
       <c r="I6" t="s">
@@ -2183,7 +2183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -2191,10 +2191,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -2208,63 +2208,63 @@
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2281,10 +2281,10 @@
       <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="2">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>165</v>
       </c>
       <c r="H2" t="s">
@@ -2296,11 +2296,9 @@
       <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="2">
         <v>7</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
@@ -2315,10 +2313,10 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -2330,7 +2328,7 @@
       <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>7</v>
       </c>
     </row>
@@ -2347,10 +2345,10 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
@@ -2362,7 +2360,7 @@
       <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>7</v>
       </c>
     </row>
@@ -2379,10 +2377,10 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
@@ -2394,10 +2392,10 @@
       <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>7</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2414,10 +2412,10 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>22</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H6" t="s">
@@ -2435,10 +2433,10 @@
       <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>7</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P6" t="s">
@@ -2458,10 +2456,10 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>87</v>
       </c>
       <c r="H7" t="s">
@@ -2479,10 +2477,10 @@
       <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>7</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P7" t="s">
@@ -2502,10 +2500,10 @@
       <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>92</v>
       </c>
       <c r="H8" t="s">
@@ -2517,7 +2515,7 @@
       <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>7</v>
       </c>
     </row>
@@ -2534,10 +2532,10 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="2">
         <v>22</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>181</v>
       </c>
       <c r="H9" t="s">
@@ -2549,13 +2547,13 @@
       <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>7</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2572,10 +2570,10 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="2">
         <v>22</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>182</v>
       </c>
       <c r="H10" t="s">
@@ -2587,13 +2585,13 @@
       <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>7</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2610,10 +2608,10 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="2">
         <v>22</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>183</v>
       </c>
       <c r="H11" t="s">
@@ -2625,16 +2623,16 @@
       <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>7</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2665,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2673,14 +2671,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -2690,522 +2688,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2">
         <v>80</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <v>80</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="H4" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
+      <c r="A5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>81</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="H5" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6">
         <v>81</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="H6" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
+      <c r="A7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
         <v>81</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="H7" t="s">
         <v>168</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>90</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
+      <c r="A10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <v>90</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <v>92</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="14" t="s">
+      <c r="A12" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>92</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="14" t="s">
+      <c r="A13" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <v>92</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <v>93</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" t="s">
         <v>178</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="14" t="s">
+      <c r="A15" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15">
         <v>93</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="H15" t="s">
         <v>178</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="14" t="s">
+      <c r="A16" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16">
         <v>93</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" t="s">
         <v>178</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <v>93</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="H17" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="14" t="s">
+      <c r="A18" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18">
         <v>93</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
+      <c r="H18" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="14" t="s">
+      <c r="A19" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19">
         <v>93</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="14" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>224</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="23" spans="1:9">
-      <c r="F23" s="16"/>
+      <c r="F23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3217,7 +3284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -3227,7 +3294,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -3306,7 +3373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3314,17 +3381,17 @@
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3394,14 +3461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3415,7 +3482,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
@@ -3426,7 +3493,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
@@ -3437,7 +3504,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F2804B-1E02-47FB-9142-A147B3026F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A40B9-D134-4D75-B3E4-D32B5ED891C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3180" yWindow="2724" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -822,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,7 +866,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2191,7 +2190,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -3191,7 +3190,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="19" t="s">
+      <c r="A20" t="s">
         <v>223</v>
       </c>
       <c r="B20" t="s">
@@ -3220,7 +3219,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="19" t="s">
+      <c r="A21" t="s">
         <v>223</v>
       </c>
       <c r="B21" t="s">
@@ -3246,7 +3245,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19" t="s">
+      <c r="A22" t="s">
         <v>223</v>
       </c>
       <c r="B22" t="s">

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A40B9-D134-4D75-B3E4-D32B5ED891C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7FBE7-841C-4B79-963A-06E4E0CC3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3180" yWindow="2724" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
-    <sheet name="ESPESIFICACIONES" sheetId="8" r:id="rId2"/>
-    <sheet name="SERVIDORES" sheetId="2" r:id="rId3"/>
-    <sheet name="APLICACIONES" sheetId="4" r:id="rId4"/>
-    <sheet name="Start Servers DEV&amp;QA" sheetId="6" r:id="rId5"/>
-    <sheet name="Escala de Puntos JIRA" sheetId="7" r:id="rId6"/>
-    <sheet name="listas" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="SERVIDORES" sheetId="2" r:id="rId2"/>
+    <sheet name="APLICACIONES" sheetId="4" r:id="rId3"/>
+    <sheet name="listas" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="200">
   <si>
     <t>Nombre</t>
   </si>
@@ -399,45 +396,6 @@
     <t>REPCENTRAL</t>
   </si>
   <si>
-    <t>Si se va la luz, hay que iniciar los servidores, poner las contraseñas desde el equipo servidores DEV y QA</t>
-  </si>
-  <si>
-    <t>Caso particular: El server de back (dev, se inicia desde el BIOS)</t>
-  </si>
-  <si>
-    <t>#Levantar apache (back y front)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  systemctl status httpd.service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  sudo setenforce 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  systemctl start httpd</t>
-  </si>
-  <si>
-    <t>#10.200.4.105 (back)</t>
-  </si>
-  <si>
-    <t>pm2 restart 0</t>
-  </si>
-  <si>
-    <t>#si no carga el log in</t>
-  </si>
-  <si>
-    <t>systemctl status firewalld</t>
-  </si>
-  <si>
-    <t>#Si está encendido, se apaga</t>
-  </si>
-  <si>
-    <t>systemctl stop firewalld</t>
-  </si>
-  <si>
-    <t>#debería funcionar y dejar hacer log in</t>
-  </si>
-  <si>
     <t>ApiSiregob</t>
   </si>
   <si>
@@ -451,54 +409,6 @@
   </si>
   <si>
     <t>Estatus</t>
-  </si>
-  <si>
-    <t>1 HR</t>
-  </si>
-  <si>
-    <t>1 punto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 dia </t>
-  </si>
-  <si>
-    <t>8 puntos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 dias </t>
-  </si>
-  <si>
-    <t>16 puntos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 semana </t>
-  </si>
-  <si>
-    <t>40 puntos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 semanas </t>
-  </si>
-  <si>
-    <t>80 puntos</t>
-  </si>
-  <si>
-    <t>160 puntos</t>
-  </si>
-  <si>
-    <t>1 Mes</t>
-  </si>
-  <si>
-    <t>2 Meses</t>
-  </si>
-  <si>
-    <t>320 puntos</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Puntos</t>
   </si>
   <si>
     <t>Descripcion</t>
@@ -707,13 +617,25 @@
   </si>
   <si>
     <t>https://github.com/aagarcia25/UtileriaPython</t>
+  </si>
+  <si>
+    <t>Rx7TqKzxvY6W</t>
+  </si>
+  <si>
+    <t>Contraseña / local</t>
+  </si>
+  <si>
+    <t>contraeña / Externa</t>
+  </si>
+  <si>
+    <t>Pxq7KbTxDnvY6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +692,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -822,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -861,55 +790,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="30">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -928,6 +819,97 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1096,42 +1078,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ambiente" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Permiso" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NombreSesión" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IP" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Usuario BD" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Contraseña" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ambiente" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Permiso" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NombreSesión" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IP" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Usuario BD" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Contraseña / local" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{19BFD859-BD77-4A57-9388-7D7DDBA48863}" name="contraeña / Externa" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:Q12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ambiente"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Conexión"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Permiso"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nombre"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Puerto" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="IP" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Host"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Usuario"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Contraseña"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="RAM"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Núcleos"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SO"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Version" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Interno" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Externo" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Procesador"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Equipo"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ambiente" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Conexión" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Permiso" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nombre" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Puerto" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="IP" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Host" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Usuario" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Contraseña" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="RAM" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Núcleos" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SO" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Version" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Interno" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Externo" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Procesador" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Equipo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1145,22 +1128,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Ambiente" dataCellStyle="Normal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Nombre Corto" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="IP" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Puerto" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Puerto" dataDxfId="19" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Estatus" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Descripcion" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Repositorio" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Path" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="A1:B8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Tiempo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Puntos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1436,7 +1408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1448,6 +1420,7 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -1470,7 +1443,10 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>197</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1487,13 +1463,16 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1510,7 +1489,7 @@
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -1518,6 +1497,7 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
@@ -1533,7 +1513,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -1541,6 +1521,7 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -1556,7 +1537,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>53</v>
@@ -1564,6 +1545,7 @@
       <c r="G5" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
@@ -1579,7 +1561,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>54</v>
@@ -1587,6 +1569,7 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
@@ -1602,7 +1585,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1610,6 +1593,7 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
@@ -1625,7 +1609,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>62</v>
@@ -1633,6 +1617,7 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
@@ -1648,7 +1633,7 @@
         <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1656,6 +1641,7 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="16.8">
       <c r="A10" s="1" t="s">
@@ -1679,6 +1665,7 @@
       <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
@@ -1703,6 +1690,7 @@
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
@@ -1726,6 +1714,7 @@
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
@@ -1749,6 +1738,7 @@
       <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
@@ -1772,6 +1762,7 @@
       <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
@@ -1795,6 +1786,7 @@
       <c r="G15" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="16.8">
       <c r="A16" s="1" t="s">
@@ -1818,6 +1810,7 @@
       <c r="G16" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H16" s="16"/>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
@@ -1842,6 +1835,7 @@
       <c r="G17" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
@@ -1865,6 +1859,7 @@
       <c r="G18" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
@@ -1888,6 +1883,7 @@
       <c r="G19" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="16.8">
       <c r="A20" s="1" t="s">
@@ -1911,6 +1907,7 @@
       <c r="G20" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="H20" s="16"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
@@ -1935,6 +1932,7 @@
       <c r="G21" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
@@ -1958,6 +1956,7 @@
       <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
@@ -1981,6 +1980,7 @@
       <c r="G23" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="H23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1992,229 +1992,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.6640625" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:10">
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="3:10" ht="28.8">
-      <c r="C2" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="3:10" ht="28.8">
-      <c r="C3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="28.8">
-      <c r="C4" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="28.8">
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:Q12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1">
+    <row r="1" spans="1:29" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -2267,128 +2078,197 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="2" spans="1:29">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+      <c r="V2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="V3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC3" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="V4" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="2">
@@ -2397,18 +2277,39 @@
       <c r="N5" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+      <c r="V5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2">
@@ -2417,19 +2318,19 @@
       <c r="F6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="17">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="2">
@@ -2438,42 +2339,63 @@
       <c r="N6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="V6" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="17">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="2">
@@ -2482,68 +2404,92 @@
       <c r="N7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="V7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+    <row r="9" spans="1:29">
+      <c r="A9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>22</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="2">
@@ -2556,32 +2502,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+    <row r="10" spans="1:29">
+      <c r="A10" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>22</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="2">
@@ -2594,32 +2540,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
+    <row r="11" spans="1:29">
+      <c r="A11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>22</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="2">
@@ -2635,21 +2581,41 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="D12" t="s">
+    <row r="12" spans="1:29">
+      <c r="D12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="17">
+        <v>22</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="V14" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="V15" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E12">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" t="s">
-        <v>186</v>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="V16" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="22:22">
+      <c r="V17" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2661,14 +2627,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
@@ -2688,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2703,21 +2669,21 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2732,21 +2698,21 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -2761,21 +2727,21 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
@@ -2787,24 +2753,24 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2813,24 +2779,24 @@
         <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
         <v>87</v>
@@ -2839,24 +2805,24 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
@@ -2865,24 +2831,24 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
@@ -2891,27 +2857,27 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
@@ -2920,24 +2886,24 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
@@ -2946,24 +2912,24 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -2972,24 +2938,24 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -2998,24 +2964,24 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
         <v>96</v>
@@ -3024,24 +2990,24 @@
         <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -3050,24 +3016,24 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -3076,24 +3042,24 @@
         <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -3102,24 +3068,24 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -3128,24 +3094,24 @@
         <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
         <v>87</v>
@@ -3154,24 +3120,24 @@
         <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
@@ -3180,18 +3146,18 @@
         <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3206,21 +3172,21 @@
         <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
@@ -3235,21 +3201,21 @@
         <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
         <v>89</v>
@@ -3261,13 +3227,13 @@
         <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3282,184 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7FBE7-841C-4B79-963A-06E4E0CC3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB61B858-6187-4EC5-A6F7-3BA6723D9D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="203">
   <si>
     <t>Nombre</t>
   </si>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>Pxq7KbTxDnvY6</t>
+  </si>
+  <si>
+    <t>INCI</t>
+  </si>
+  <si>
+    <t>INCIDENCIAS</t>
+  </si>
+  <si>
+    <t>pladi</t>
   </si>
 </sst>
 </file>
@@ -751,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,34 +800,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -887,12 +882,25 @@
       <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1078,8 +1086,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ambiente" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo" dataDxfId="26"/>
@@ -1095,26 +1103,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:Q12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ambiente" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Conexión" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Permiso" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nombre" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Puerto" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="IP" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Host" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Usuario" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Contraseña" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="RAM" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Núcleos" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Version" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Interno" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Externo" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Procesador" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Equipo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ambiente" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Conexión" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Permiso" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nombre" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Puerto" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="IP" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Host" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Usuario" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Contraseña" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="RAM" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Núcleos" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="SO" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Version" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Interno" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Externo" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Procesador" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Equipo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,7 +1136,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Ambiente" dataCellStyle="Normal"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Nombre Corto" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="IP" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Puerto" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Puerto" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Estatus" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Descripcion" dataCellStyle="Normal"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Repositorio" dataCellStyle="Normal"/>
@@ -1404,11 +1412,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1982,6 +1990,30 @@
       </c>
       <c r="H23" s="16"/>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1998,31 +2030,33 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5546875" style="17"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="8" customFormat="1">
@@ -2079,84 +2113,84 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>22</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="2">
         <v>7</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" t="s">
         <v>159</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" t="s">
         <v>160</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" t="s">
         <v>161</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" t="s">
         <v>162</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AA2" t="s">
         <v>163</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="2">
@@ -2165,54 +2199,54 @@
       <c r="V3" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" t="s">
         <v>164</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" t="s">
         <v>172</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" t="s">
         <v>166</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>22</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="2">
@@ -2221,54 +2255,54 @@
       <c r="V4" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" t="s">
         <v>165</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" t="s">
         <v>173</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" t="s">
         <v>170</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AC4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="17" t="s">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>22</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="2">
@@ -2283,33 +2317,33 @@
       <c r="W5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" t="s">
         <v>177</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" t="s">
         <v>166</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" t="s">
         <v>168</v>
       </c>
-      <c r="AC5" s="17" t="s">
+      <c r="AC5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="17" t="s">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="2">
@@ -2318,19 +2352,19 @@
       <c r="F6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="2">
@@ -2339,63 +2373,63 @@
       <c r="N6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" t="s">
         <v>180</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" t="s">
         <v>167</v>
       </c>
-      <c r="AC6" s="17" t="s">
+      <c r="AC6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="17" t="s">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>22</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="2">
@@ -2404,60 +2438,60 @@
       <c r="N7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" t="s">
         <v>86</v>
       </c>
       <c r="V7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" t="s">
         <v>183</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" t="s">
         <v>184</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" t="s">
         <v>185</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" t="s">
         <v>166</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" t="s">
         <v>171</v>
       </c>
-      <c r="AC7" s="17" t="s">
+      <c r="AC7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="17" t="s">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>22</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="2">
@@ -2465,16 +2499,16 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="17" t="s">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="2">
@@ -2483,13 +2517,13 @@
       <c r="F9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="2">
@@ -2503,16 +2537,16 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="17" t="s">
+      <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="2">
@@ -2521,13 +2555,13 @@
       <c r="F10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="2">
@@ -2541,16 +2575,16 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="17" t="s">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2">
@@ -2559,13 +2593,13 @@
       <c r="F11" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="2">
@@ -2582,39 +2616,39 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="D12" s="17" t="s">
+      <c r="D12" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12">
         <v>22</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="V14" s="17" t="s">
+      <c r="V14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="V15" s="17" t="s">
+      <c r="V15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="V16" s="17" t="s">
+      <c r="V16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="22:22">
-      <c r="V17" s="17" t="s">
+      <c r="V17" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2634,7 +2668,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB61B858-6187-4EC5-A6F7-3BA6723D9D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8811FD7-C4B3-4B55-9C3D-43D0B422D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="APLICACIONES" sheetId="4" r:id="rId3"/>
     <sheet name="listas" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="205">
   <si>
     <t>Nombre</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>pladi</t>
+  </si>
+  <si>
+    <t>PABI/BACK</t>
+  </si>
+  <si>
+    <t>pabi</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -756,11 +762,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,6 +832,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1416,7 +1455,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2032,7 +2071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6:Z6"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2666,11 +2705,11 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -3272,6 +3311,148 @@
     </row>
     <row r="23" spans="1:9">
       <c r="F23" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="20">
+        <v>95</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="20">
+        <v>95</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="21">
+        <v>95</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="20">
+        <v>94</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="20">
+        <v>94</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="21">
+        <v>94</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8811FD7-C4B3-4B55-9C3D-43D0B422D3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E2F0F-4812-4B90-A8A7-CCF55C16D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29532" yWindow="3024" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="APLICACIONES" sheetId="4" r:id="rId3"/>
     <sheet name="listas" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="214">
   <si>
     <t>Nombre</t>
   </si>
@@ -644,13 +644,40 @@
   </si>
   <si>
     <t>pabi</t>
+  </si>
+  <si>
+    <t>API_DIRECCIONES</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>10.210.0.26</t>
+  </si>
+  <si>
+    <t>USER_DIRECCIONES</t>
+  </si>
+  <si>
+    <t>DIRECCIONES</t>
+  </si>
+  <si>
+    <t>10.210.26.24</t>
+  </si>
+  <si>
+    <t>084TUn8PCd</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>PBR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +736,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -790,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -832,15 +865,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,8 +1162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:H24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ambiente" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo" dataDxfId="26"/>
@@ -1142,8 +1179,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:Q12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:Q13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ambiente" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Conexión" dataDxfId="16"/>
@@ -1451,11 +1488,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2053,6 +2090,52 @@
       </c>
       <c r="H24" s="16"/>
     </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2069,9 +2152,9 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2081,7 +2164,7 @@
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
@@ -2553,7 +2636,7 @@
       <c r="E9" s="2">
         <v>22</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="23" t="s">
         <v>152</v>
       </c>
       <c r="H9" t="s">
@@ -2591,7 +2674,7 @@
       <c r="E10" s="2">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="23" t="s">
         <v>153</v>
       </c>
       <c r="H10" t="s">
@@ -2629,7 +2712,7 @@
       <c r="E11" s="2">
         <v>22</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="23" t="s">
         <v>154</v>
       </c>
       <c r="H11" t="s">
@@ -2670,6 +2753,37 @@
       <c r="I12" t="s">
         <v>157</v>
       </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2">
+        <v>7</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:29">
       <c r="V14" t="s">
@@ -2707,9 +2821,9 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -3294,7 +3408,7 @@
         <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="E22">
         <v>99</v>
@@ -3311,6 +3425,60 @@
     </row>
     <row r="23" spans="1:9">
       <c r="F23" s="13"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="20">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="17">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="E28" s="20"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="19" t="s">
@@ -3335,7 +3503,7 @@
         <v>128</v>
       </c>
       <c r="H30" s="20"/>
-      <c r="I30" s="22"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="19" t="s">
@@ -3358,30 +3526,30 @@
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="17">
         <v>95</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="19" t="s">
@@ -3406,7 +3574,7 @@
         <v>128</v>
       </c>
       <c r="H36" s="20"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="19" t="s">
@@ -3429,30 +3597,30 @@
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="17">
         <v>94</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="23"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E2F0F-4812-4B90-A8A7-CCF55C16D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82A5FED-83FD-451F-A683-9772BAA21764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29532" yWindow="3024" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
     <sheet name="SERVIDORES" sheetId="2" r:id="rId2"/>
-    <sheet name="APLICACIONES" sheetId="4" r:id="rId3"/>
-    <sheet name="listas" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="APLICACIONES" sheetId="4" r:id="rId4"/>
+    <sheet name="listas" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="219">
   <si>
     <t>Nombre</t>
   </si>
@@ -671,6 +672,21 @@
   </si>
   <si>
     <t>PBR</t>
+  </si>
+  <si>
+    <t>INCIDENCIAS/BACK</t>
+  </si>
+  <si>
+    <t>INCIDENCIAS/FRONT</t>
+  </si>
+  <si>
+    <t>/api/inci</t>
+  </si>
+  <si>
+    <t>Servidores</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
   </si>
 </sst>
 </file>
@@ -756,7 +772,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -819,11 +835,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,8 +907,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,7 +2195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2755,35 +2796,27 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" t="s">
         <v>213</v>
       </c>
       <c r="E13" s="2">
         <v>22</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24" t="s">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" t="s">
         <v>212</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
       <c r="L13" t="s">
         <v>46</v>
       </c>
       <c r="M13" s="2">
         <v>7</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:29">
       <c r="V14" t="s">
@@ -2815,15 +2848,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEECCDA-68C2-4BFE-A5BE-F8C25A0CF735}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="28">
+        <v>22</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28">
+        <v>22</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="28">
+        <v>22</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="28">
+        <v>22</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -3622,6 +3759,136 @@
       <c r="H38" s="17"/>
       <c r="I38" s="22"/>
     </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="17">
+        <v>3005</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3005</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="17">
+        <v>3005</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="20">
+        <v>94</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="20">
+        <v>94</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="17">
+        <v>94</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3631,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/DOCUMENTOS GENERALES/Servicios.xlsx
+++ b/DOCUMENTOS GENERALES/Servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\All-documents\DOCUMENTOS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82A5FED-83FD-451F-A683-9772BAA21764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB9E9E3-C2F5-42D1-83C6-1E30CAC670DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,12 +912,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,9 +2192,9 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30:H33"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2851,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEECCDA-68C2-4BFE-A5BE-F8C25A0CF735}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2865,27 +2864,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>22</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -2893,16 +2892,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -2910,16 +2909,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>22</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -2927,16 +2926,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>22</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="26" t="s">
